--- a/SMO/TemplateExcel/Template_SuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/Template_SuaChuaLon.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC2DDB-C94A-473C-9EB1-5DD34D4BFB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -28,18 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
-    <t>Mã khoản mục</t>
-  </si>
-  <si>
-    <t>Tên khoản mục</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
   <si>
     <t>Người lập:</t>
@@ -48,28 +38,19 @@
     <t>Người duyệt:</t>
   </si>
   <si>
-    <t>Mã sân bay</t>
-  </si>
-  <si>
-    <t>Tên sân bay</t>
-  </si>
-  <si>
-    <t>Mã chi nhánh</t>
-  </si>
-  <si>
-    <t>Tên chi nhánh</t>
-  </si>
-  <si>
     <t>Quy mô</t>
   </si>
   <si>
-    <t>Kinh phí</t>
+    <t xml:space="preserve">Mã </t>
+  </si>
+  <si>
+    <t>Chỉ tiêu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,12 +151,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -194,11 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -211,10 +224,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_master data" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_master data" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,14 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:I3"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,91 +582,79 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>

--- a/SMO/TemplateExcel/Template_SuaChuaLon.xlsx
+++ b/SMO/TemplateExcel/Template_SuaChuaLon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142CF8E-1FAA-4B4C-82BB-11E2377481EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
   </si>
@@ -41,16 +42,34 @@
     <t>Quy mô</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã </t>
+    <t>Mã chi nhánh</t>
   </si>
   <si>
-    <t>Chỉ tiêu</t>
+    <t>Tên chi nhánh</t>
+  </si>
+  <si>
+    <t>Mã sân bay</t>
+  </si>
+  <si>
+    <t>Tên sân bay</t>
+  </si>
+  <si>
+    <t>Mã khoản mục</t>
+  </si>
+  <si>
+    <t>Tên khoản mục</t>
+  </si>
+  <si>
+    <t>Kinh phí</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,49 +170,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -224,28 +206,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_master data" xfId="1"/>
+    <cellStyle name="Normal_master data" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,27 +525,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.77734375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -624,37 +589,49 @@
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
